--- a/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
+++ b/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2285,22 +2285,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -2312,12 +2312,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2334,12 +2334,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2351,22 +2351,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -2378,12 +2378,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2400,37 +2400,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
         </is>
@@ -2447,7 +2425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E456"/>
+  <dimension ref="A1:E451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2565,7 +2543,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>CO_CODE AS UNIT_CODE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2584,7 +2562,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>MARK_DATE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2603,7 +2581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CO_CODE AS UNIT_CODE</t>
+          <t>SUM( NUMBER_SLIP ) TOTAL_TRANS_REF</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2622,7 +2600,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2641,7 +2619,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SUM( NUMBER_SLIP ) TOTAL_TRANS_REF</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2660,7 +2638,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2679,7 +2657,7 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>MARK_DATE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8570,7 +8548,7 @@
       <c r="C232" t="inlineStr"/>
       <c r="D232" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>('NEW', 'RENEW')</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -8589,7 +8567,7 @@
       <c r="C233" t="inlineStr"/>
       <c r="D233" t="inlineStr">
         <is>
-          <t>DATA_STATUS = 'ACTIVE'</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8608,7 +8586,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>('NEW', 'RENEW')</t>
+          <t>DATA_STATUS = 'ACTIVE'</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9884,7 +9862,7 @@
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9903,7 +9881,7 @@
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9922,7 +9900,7 @@
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9941,7 +9919,7 @@
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>CAREATE_DATE = ()</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9960,7 +9938,7 @@
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9979,7 +9957,7 @@
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>CAREATE_DATE = ()</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10021,7 +9999,7 @@
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="inlineStr">
         <is>
-          <t>(CAREATE_DATE)</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -10040,7 +10018,7 @@
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -10059,7 +10037,7 @@
       <c r="C291" t="inlineStr"/>
       <c r="D291" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10078,7 +10056,7 @@
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>(CAREATE_DATE)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10097,7 +10075,7 @@
       <c r="C293" t="inlineStr"/>
       <c r="D293" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10116,7 +10094,7 @@
       <c r="C294" t="inlineStr"/>
       <c r="D294" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10135,7 +10113,7 @@
       <c r="C295" t="inlineStr"/>
       <c r="D295" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10154,7 +10132,7 @@
       <c r="C296" t="inlineStr"/>
       <c r="D296" t="inlineStr">
         <is>
-          <t>STATUS = 'APPROVED'</t>
+          <t>PERRIOD = ()</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -10173,7 +10151,7 @@
       <c r="C297" t="inlineStr"/>
       <c r="D297" t="inlineStr">
         <is>
-          <t>PERRIOD = ()</t>
+          <t>STATUS = 'APPROVED'</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -10594,7 +10572,7 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10621,7 +10599,7 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10626,7 @@
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10675,7 +10653,7 @@
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10702,7 +10680,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10729,7 +10707,7 @@
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10752,7 +10730,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10775,7 +10753,7 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10776,7 @@
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10799,7 @@
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10844,7 +10822,7 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10845,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10890,7 +10868,7 @@
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10913,7 +10891,7 @@
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10940,7 +10918,7 @@
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10967,7 +10945,7 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10994,7 +10972,7 @@
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11021,7 +10999,7 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11035,12 +11013,12 @@
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>LÝ THEO</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11054,12 +11032,12 @@
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>ĐƯỢC ( PERIOD )</t>
+          <t>'REVENUE', 'LOAN_PRODUCT_CONDITION'</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11069,11 +11047,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B333" t="inlineStr"/>
-      <c r="C333" t="inlineStr"/>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>TỪNG</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11088,11 +11074,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B334" t="inlineStr"/>
-      <c r="C334" t="inlineStr"/>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>LẤY RA</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11107,11 +11101,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B335" t="inlineStr"/>
-      <c r="C335" t="inlineStr"/>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -11126,11 +11128,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B336" t="inlineStr"/>
-      <c r="C336" t="inlineStr"/>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>LIỆU XỬ</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -11146,10 +11156,14 @@
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
-      <c r="C337" t="inlineStr"/>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>PERIOD</t>
+        </is>
+      </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>'REVENUE', 'LOAN_PRODUCT_CONDITION'</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -11164,19 +11178,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
-        </is>
-      </c>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -11191,19 +11201,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
-        </is>
-      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -11218,19 +11224,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11247,19 +11249,15 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>CREATE_USER</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -11273,14 +11271,10 @@
         </is>
       </c>
       <c r="B342" t="inlineStr"/>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C342" t="inlineStr"/>
       <c r="D342" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>DEBT &gt; 0</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11296,14 +11290,10 @@
         </is>
       </c>
       <c r="B343" t="inlineStr"/>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C343" t="inlineStr"/>
       <c r="D343" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>UPPER(CONTRACT)</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11319,14 +11309,10 @@
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C344" t="inlineStr"/>
       <c r="D344" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>DAYID = ()</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
@@ -11338,18 +11324,18 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B345" t="inlineStr"/>
       <c r="C345" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -11361,20 +11347,20 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr"/>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
         <is>
           <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr"/>
       <c r="E346" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -11384,16 +11370,20 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr"/>
-      <c r="C347" t="inlineStr"/>
-      <c r="D347" t="inlineStr">
-        <is>
-          <t>UPPER(CONTRACT)</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -11403,7 +11393,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B348" t="inlineStr"/>
@@ -11422,14 +11412,14 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B349" t="inlineStr"/>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="inlineStr">
         <is>
-          <t>DAYID = ()</t>
+          <t>(DAYID)</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -11441,18 +11431,22 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -11464,18 +11458,22 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>REPORTNOTE</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -11487,61 +11485,81 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D352" t="inlineStr"/>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>EVALUATION_RESULT</t>
+        </is>
+      </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr"/>
-      <c r="C354" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11553,12 +11571,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -11568,7 +11586,7 @@
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu tài sản bảo đảm</t>
         </is>
       </c>
     </row>
@@ -11590,12 +11608,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>REPORTNOTE</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11607,22 +11625,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11634,22 +11652,22 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONTRACTREFS</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11671,12 +11689,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11688,12 +11706,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -11703,7 +11721,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu tài sản bảo đảm</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11715,12 +11733,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -11730,7 +11748,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11742,22 +11760,22 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11769,22 +11787,22 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>CONTRACTREFS</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11796,22 +11814,22 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11823,12 +11841,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -11838,7 +11856,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11850,12 +11868,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -11877,17 +11895,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>END_DATE</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -11902,19 +11920,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -11931,19 +11945,15 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
-      <c r="D369" t="inlineStr">
-        <is>
-          <t>CREATE_USER</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -11956,19 +11966,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B370" t="inlineStr"/>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>DEBT &gt; 0</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -11983,19 +11985,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B371" t="inlineStr"/>
+      <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>CONTRACT_REF = REFID</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12010,19 +12004,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B372" t="inlineStr"/>
+      <c r="C372" t="inlineStr"/>
       <c r="D372" t="inlineStr">
         <is>
-          <t>END_DATE</t>
+          <t>DAYID = ()</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -12034,7 +12020,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B373" t="inlineStr"/>
@@ -12057,7 +12043,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -12080,7 +12066,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B375" t="inlineStr"/>
@@ -12099,7 +12085,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -12118,14 +12104,14 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="inlineStr">
         <is>
-          <t>DAYID = ()</t>
+          <t>(DAYID)</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -12141,14 +12127,10 @@
         </is>
       </c>
       <c r="B378" t="inlineStr"/>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C378" t="inlineStr"/>
       <c r="D378" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -12160,20 +12142,24 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
       <c r="E379" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -12183,14 +12169,22 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr"/>
-      <c r="C380" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -12202,14 +12196,22 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr"/>
-      <c r="C381" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>REPORTNOTE</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
@@ -12221,14 +12223,22 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr"/>
-      <c r="C382" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>CONTRACT_REF = REFID</t>
+          <t>CHECK_PERIOD_REPORT</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -12240,14 +12250,22 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr"/>
-      <c r="C383" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>CHECKPERIODREPORT</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -12264,17 +12282,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -12301,7 +12319,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>REPORTBATCHID</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12328,7 +12346,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>REPORTNOTE</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -12345,22 +12363,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>CHECK_PERIOD_REPORT</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12372,22 +12390,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>CHECKPERIODREPORT</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12409,12 +12427,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>COUNT</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12436,12 +12454,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>REPORTBATCHID</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12463,12 +12481,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Function</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12480,22 +12498,22 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12507,22 +12525,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12534,22 +12552,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>MONTH_POINT</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12561,12 +12579,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -12576,7 +12594,7 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12588,12 +12606,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -12603,7 +12621,7 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12615,22 +12633,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12642,22 +12660,22 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>DUAL</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>DUAL</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>EXTRACT</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12669,22 +12687,22 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>MONTH_POINT</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12696,22 +12714,22 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12723,22 +12741,22 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Function</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12750,22 +12768,22 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12777,22 +12795,22 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>EXTRACT</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12804,7 +12822,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -12814,7 +12832,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -12831,17 +12849,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -12858,17 +12876,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -12885,17 +12903,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -12910,19 +12928,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
-        </is>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
+      <c r="B408" t="inlineStr"/>
+      <c r="C408" t="inlineStr"/>
       <c r="D408" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>ĐKSP</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -12937,24 +12947,16 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
+      <c r="B409" t="inlineStr"/>
+      <c r="C409" t="inlineStr"/>
       <c r="D409" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>MIN(VALUE_DATE)</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12964,36 +12966,28 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B410" t="inlineStr"/>
+      <c r="C410" t="inlineStr"/>
       <c r="D410" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>MIN_VALUE_DATE</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -13003,24 +12997,24 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -13030,45 +13024,61 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr"/>
-      <c r="C413" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>ĐKSP</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr"/>
-      <c r="C414" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>MIN(VALUE_DATE)</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -13080,14 +13090,22 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr"/>
-      <c r="C415" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>MIN_VALUE_DATE</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -13104,17 +13122,17 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -13129,19 +13147,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B417" t="inlineStr">
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
         <is>
           <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
-      <c r="D417" t="inlineStr">
-        <is>
-          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -13156,19 +13170,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
+      <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -13183,19 +13193,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
+      <c r="B419" t="inlineStr"/>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
         <is>
           <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -13210,19 +13216,11 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
-        </is>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
+      <c r="B420" t="inlineStr"/>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13234,115 +13232,135 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
+        </is>
+      </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13354,7 +13372,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -13364,7 +13382,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -13391,7 +13409,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -13418,7 +13436,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -13435,7 +13453,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -13445,7 +13463,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -13460,19 +13478,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="C430" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
       <c r="D430" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREDIT_RELATION_PERIOD_STATUS = NULL</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -13489,7 +13499,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -13499,7 +13509,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -13526,7 +13536,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -13553,7 +13563,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -13570,7 +13580,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -13580,7 +13590,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -13595,11 +13605,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B435" t="inlineStr"/>
-      <c r="C435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>CREDIT_RELATION_PERIOD_STATUS = NULL</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -13616,7 +13634,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -13626,7 +13644,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -13643,7 +13661,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -13653,7 +13671,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -13670,7 +13688,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -13680,7 +13698,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -13697,7 +13715,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -13707,7 +13725,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -13724,17 +13742,17 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -13751,17 +13769,17 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -13778,17 +13796,17 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -13805,7 +13823,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -13815,7 +13833,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -13832,7 +13850,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -13842,7 +13860,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -13859,17 +13877,17 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -13886,17 +13904,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -13913,17 +13931,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -13940,17 +13958,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>RENEW</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -13972,17 +13990,17 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13994,22 +14012,22 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -14021,155 +14039,20 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>ADVANCE_RELEASE_CONDITION</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="D452" t="inlineStr">
-        <is>
-          <t>CREATE_PERIOD_STATUS</t>
-        </is>
-      </c>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="D453" t="inlineStr">
-        <is>
-          <t>RENEW</t>
-        </is>
-      </c>
-      <c r="E453" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="C454" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="D454" t="inlineStr">
-        <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="E454" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr">
-        <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D456" t="inlineStr">
-        <is>
-          <t>ADVANCE_RELEASE_CONDITION</t>
-        </is>
-      </c>
-      <c r="E456" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
         </is>

--- a/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
+++ b/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
@@ -2095,7 +2095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E464"/>
+  <dimension ref="A1:E458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2443,7 +2443,7 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2462,7 +2462,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>MARK_DATE</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2481,7 +2481,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>SUM( NUMBER_SLIP ) TOTAL_TRANS_REF</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2500,7 +2500,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2519,7 +2519,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SUM( NUMBER_SLIP ) TOTAL_TRANS_REF</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2538,7 +2538,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CO_CODE AS UNIT_CODE</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2557,7 +2557,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MARK_DATE</t>
+          <t>CO_CODE AS UNIT_CODE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -7778,7 +7778,7 @@
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DATA_STATUS = 'ACTIVE'</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -7797,7 +7797,7 @@
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>DATA_STATUS = 'ACTIVE'</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -9254,7 +9254,7 @@
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9273,7 +9273,7 @@
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9292,7 +9292,7 @@
       <c r="C274" t="inlineStr"/>
       <c r="D274" t="inlineStr">
         <is>
-          <t>CAREATE_DATE = ()</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9311,7 +9311,7 @@
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>CAREATE_DATE = ()</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9349,7 +9349,7 @@
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9410,7 +9410,7 @@
       <c r="C280" t="inlineStr"/>
       <c r="D280" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9429,7 +9429,7 @@
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9448,7 +9448,7 @@
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9467,7 +9467,7 @@
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>(CAREATE_DATE)</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9486,7 +9486,7 @@
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9505,7 +9505,7 @@
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="inlineStr">
         <is>
-          <t>(CAREATE_DATE)</t>
+          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9524,7 +9524,7 @@
       <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>PERRIOD = ()</t>
+          <t>STATUS = 'APPROVED'</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -9543,7 +9543,7 @@
       <c r="C287" t="inlineStr"/>
       <c r="D287" t="inlineStr">
         <is>
-          <t>STATUS = 'APPROVED'</t>
+          <t>PERRIOD = ()</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -10136,7 +10136,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr"/>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C310" t="inlineStr">
         <is>
           <t>PE</t>
@@ -10144,7 +10148,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>LOAN_PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10159,7 +10163,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B311" t="inlineStr"/>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C311" t="inlineStr">
         <is>
           <t>PE</t>
@@ -10167,7 +10175,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_CODE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -10182,7 +10190,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr"/>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C312" t="inlineStr">
         <is>
           <t>PE</t>
@@ -10190,7 +10202,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CONTRACT_CONDITION_STATUS</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10205,15 +10217,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr"/>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>TBL_REVENUE_CONDITION</t>
+        </is>
+      </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>SANCTION</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10228,15 +10244,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B314" t="inlineStr"/>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>TBL_REVENUE_CONDITION</t>
+        </is>
+      </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>SANCTIONTYPE</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10251,15 +10271,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr"/>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>TBL_REVENUE_CONDITION</t>
+        </is>
+      </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_STATUS</t>
+          <t>ORIGIN_ID</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -10274,15 +10298,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B316" t="inlineStr"/>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>TBL_REVENUE_CONDITION</t>
+        </is>
+      </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10298,14 +10326,10 @@
         </is>
       </c>
       <c r="B317" t="inlineStr"/>
-      <c r="C317" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>EVALUATION_DATE</t>
+          <t>'REVENUE', 'LOAN_PRODUCT_CONDITION'</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10322,22 +10346,22 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>SANCTION</t>
+          <t>CONDITION_ID</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10349,22 +10373,22 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>SANCTIONTYPE</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10376,22 +10400,22 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>ORIGIN_ID</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10403,22 +10427,22 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONDITION_ID</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10428,16 +10452,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="inlineStr"/>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10447,16 +10479,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
-      <c r="C323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>'REVENUE', 'LOAN_PRODUCT_CONDITION'</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10468,17 +10508,17 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>CONDITION_ID</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10495,17 +10535,17 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10520,19 +10560,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
-        </is>
-      </c>
+      <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10547,19 +10583,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>CONDITION_ID</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10574,19 +10606,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10601,19 +10629,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -10630,19 +10654,15 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="D330" t="inlineStr">
-        <is>
-          <t>REF_ID</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -10655,19 +10675,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C331" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B331" t="inlineStr"/>
+      <c r="C331" t="inlineStr"/>
       <c r="D331" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>DEBT &gt; 0</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -10683,14 +10695,10 @@
         </is>
       </c>
       <c r="B332" t="inlineStr"/>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C332" t="inlineStr"/>
       <c r="D332" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>DAYID = ()</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -10706,14 +10714,10 @@
         </is>
       </c>
       <c r="B333" t="inlineStr"/>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C333" t="inlineStr"/>
       <c r="D333" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>UPPER(CONTRACT)</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -10725,7 +10729,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B334" t="inlineStr"/>
@@ -10736,7 +10740,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -10748,7 +10752,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B335" t="inlineStr"/>
@@ -10771,7 +10775,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -10794,14 +10798,14 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="inlineStr">
         <is>
-          <t>DAYID = ()</t>
+          <t>DEBT &gt; 0</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -10813,14 +10817,14 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="inlineStr">
         <is>
-          <t>UPPER(CONTRACT)</t>
+          <t>(DAYID)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -10835,11 +10839,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B339" t="inlineStr"/>
-      <c r="C339" t="inlineStr"/>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
@@ -10851,18 +10863,22 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -10874,18 +10890,22 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>RATING_STATUS</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -10897,20 +10917,24 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr"/>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>EVALUATION_RESULT</t>
+        </is>
+      </c>
       <c r="E342" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -10920,38 +10944,54 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr"/>
-      <c r="C343" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr"/>
-      <c r="C344" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10963,22 +11003,22 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10990,17 +11030,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11017,17 +11057,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>RATING_STATUS</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11044,22 +11084,22 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu tài sản bảo đảm</t>
         </is>
       </c>
     </row>
@@ -11081,12 +11121,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11108,12 +11148,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11175,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11152,22 +11192,22 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11179,22 +11219,22 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACTREFS</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -11206,22 +11246,22 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu tài sản bảo đảm</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11243,12 +11283,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11270,12 +11310,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11287,22 +11327,22 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>COLLATERAL_TYPES</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11314,22 +11354,22 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>LOAN_TYPE</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11341,22 +11381,22 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>CONTRACTREFS</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -11368,17 +11408,17 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11395,22 +11435,22 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11422,22 +11462,22 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11449,22 +11489,22 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>COLLATERAL_TYPES</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11476,22 +11516,22 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>LOAN_TYPE</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11503,22 +11543,22 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11530,22 +11570,22 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -11557,17 +11597,17 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -11584,17 +11624,17 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -11611,17 +11651,17 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -11638,17 +11678,17 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -11665,17 +11705,17 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -11692,17 +11732,17 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
@@ -11719,17 +11759,17 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>START_DATE</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -11746,17 +11786,17 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>MONTHVALUE</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -11773,17 +11813,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>END_DATE</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -11800,17 +11840,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>INTEREST_ADJUST</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -11827,17 +11867,17 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>INTERESTADJUSTENUM</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
@@ -11854,17 +11894,17 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>REPORT_DATE</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
@@ -11891,7 +11931,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>START_DATE</t>
+          <t>REPORTDATETYPE</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
@@ -11906,19 +11946,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B380" t="inlineStr"/>
       <c r="C380" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>MONTHVALUE</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
@@ -11935,19 +11971,15 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="D381" t="inlineStr">
-        <is>
-          <t>END_DATE</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -11960,19 +11992,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B382" t="inlineStr"/>
+      <c r="C382" t="inlineStr"/>
       <c r="D382" t="inlineStr">
         <is>
-          <t>INTEREST_ADJUST</t>
+          <t>DEBT &gt; 0</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
@@ -11987,19 +12011,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B383" t="inlineStr"/>
+      <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr">
         <is>
-          <t>INTERESTADJUSTENUM</t>
+          <t>CONTRACT_REF = REFID</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
@@ -12014,19 +12030,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr">
         <is>
-          <t>REPORT_DATE</t>
+          <t>DAYID = ()</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -12038,22 +12046,18 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr"/>
       <c r="C385" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>REPORTDATETYPE</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12065,20 +12069,20 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
-      <c r="D386" t="inlineStr">
-        <is>
           <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
+      <c r="D386" t="inlineStr"/>
       <c r="E386" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -12088,20 +12092,16 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D387" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr"/>
+      <c r="C387" t="inlineStr"/>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>DEBT &gt; 0</t>
+        </is>
+      </c>
       <c r="E387" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -12111,14 +12111,14 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="inlineStr">
         <is>
-          <t>DAYID = ()</t>
+          <t>MAX</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -12130,7 +12130,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B389" t="inlineStr"/>
@@ -12149,14 +12149,14 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>(DAYID)</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -12168,18 +12168,22 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -12191,20 +12195,24 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D392" t="inlineStr"/>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>CO_CODE</t>
+        </is>
+      </c>
       <c r="E392" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -12214,76 +12222,108 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr"/>
-      <c r="C393" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr"/>
-      <c r="C394" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr"/>
-      <c r="C395" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr"/>
-      <c r="C396" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>CONTRACT_REF = REFID</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12295,22 +12335,22 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -12322,12 +12362,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -12337,7 +12377,7 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12389,22 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>MONTH_YEAR</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12376,22 +12416,22 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12403,22 +12443,18 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>DUAL</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="D401" t="inlineStr">
-        <is>
-          <t>CO_CODE</t>
-        </is>
-      </c>
+          <t>DUAL</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -12430,22 +12466,22 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12457,22 +12493,22 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12484,22 +12520,22 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12511,22 +12547,22 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>MONTH_YEAR</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12538,22 +12574,22 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12565,18 +12601,22 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>DUAL</t>
-        </is>
-      </c>
-      <c r="D407" t="inlineStr"/>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>GROUP_CONDITION_TYPE</t>
+        </is>
+      </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12588,17 +12628,17 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -12615,17 +12655,17 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -12642,17 +12682,17 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -12667,19 +12707,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
-        </is>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
+      <c r="B411" t="inlineStr"/>
+      <c r="C411" t="inlineStr"/>
       <c r="D411" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>ĐKSP</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -12696,22 +12728,22 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12723,22 +12755,22 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12748,11 +12780,7 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
+      <c r="B414" t="inlineStr"/>
       <c r="C414" t="inlineStr">
         <is>
           <t>DH</t>
@@ -12760,12 +12788,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12775,11 +12803,7 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
+      <c r="B415" t="inlineStr"/>
       <c r="C415" t="inlineStr">
         <is>
           <t>DH</t>
@@ -12787,12 +12811,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12802,24 +12826,20 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
-        </is>
-      </c>
+      <c r="B416" t="inlineStr"/>
       <c r="C416" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12830,15 +12850,19 @@
         </is>
       </c>
       <c r="B417" t="inlineStr"/>
-      <c r="C417" t="inlineStr"/>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>ĐKSP</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -12848,19 +12872,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION</t>
-        </is>
-      </c>
+      <c r="B418" t="inlineStr"/>
       <c r="C418" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -12875,19 +12895,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
+      <c r="B419" t="inlineStr"/>
       <c r="C419" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -12905,12 +12921,12 @@
       <c r="B420" t="inlineStr"/>
       <c r="C420" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -12928,12 +12944,12 @@
       <c r="B421" t="inlineStr"/>
       <c r="C421" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -12951,12 +12967,12 @@
       <c r="B422" t="inlineStr"/>
       <c r="C422" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -12972,14 +12988,10 @@
         </is>
       </c>
       <c r="B423" t="inlineStr"/>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
+      <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>MIN_VALUE_DATE</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -12995,14 +13007,10 @@
         </is>
       </c>
       <c r="B424" t="inlineStr"/>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
+      <c r="C424" t="inlineStr"/>
       <c r="D424" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>SELECTMIN(VALUE_DATE)</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -13017,15 +13025,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B425" t="inlineStr"/>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -13040,15 +13052,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B426" t="inlineStr"/>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -13063,20 +13079,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B427" t="inlineStr"/>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13086,20 +13106,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B428" t="inlineStr"/>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13109,16 +13133,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B429" t="inlineStr"/>
-      <c r="C429" t="inlineStr"/>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>MIN_VALUE_DATE</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13128,16 +13160,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B430" t="inlineStr"/>
-      <c r="C430" t="inlineStr"/>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>SELECTMIN(VALUE_DATE)</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13149,22 +13189,22 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13176,22 +13216,22 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13203,7 +13243,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -13213,7 +13253,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
@@ -13230,7 +13270,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -13240,7 +13280,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -13267,7 +13307,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -13282,19 +13322,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
       <c r="D436" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREDIT_RELATION_PERIOD_STATUS = NULL</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
@@ -13321,7 +13353,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -13348,7 +13380,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -13365,7 +13397,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -13375,7 +13407,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
@@ -13392,7 +13424,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -13402,7 +13434,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
@@ -13419,7 +13451,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -13429,7 +13461,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
@@ -13444,11 +13476,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B442" t="inlineStr"/>
-      <c r="C442" t="inlineStr"/>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>CREDIT_RELATION_PERIOD_STATUS = NULL</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -13475,7 +13515,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -13502,7 +13542,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
@@ -13529,7 +13569,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
@@ -13546,17 +13586,17 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -13573,17 +13613,17 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -13600,17 +13640,17 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -13637,7 +13677,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -13664,7 +13704,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -13691,7 +13731,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -13708,17 +13748,17 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -13735,17 +13775,17 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>RENEW</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -13762,22 +13802,22 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CONTRACT_MD</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13789,22 +13829,22 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13816,22 +13856,22 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13843,22 +13883,22 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>ADVANCE_RELEASE_CONDITION</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13870,182 +13910,20 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
-        </is>
-      </c>
-      <c r="D459" t="inlineStr">
-        <is>
-          <t>RENEW</t>
-        </is>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="C460" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="D460" t="inlineStr">
-        <is>
-          <t>CONTRACT_MD</t>
-        </is>
-      </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D461" t="inlineStr">
-        <is>
-          <t>CONTRACT_REF</t>
-        </is>
-      </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C462" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D462" t="inlineStr">
-        <is>
-          <t>CATEGORY</t>
-        </is>
-      </c>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C463" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D463" t="inlineStr">
-        <is>
-          <t>ADVANCE_RELEASE_CONDITION</t>
-        </is>
-      </c>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>Xử lý dữ liệu</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>PRODUCT_CODE</t>
-        </is>
-      </c>
-      <c r="E464" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
         </is>

--- a/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
+++ b/Output/Table_Column/JOB nghiệp vụ 2.11_TAB_COL.xlsx
@@ -2425,7 +2425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E503"/>
+  <dimension ref="A1:E504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2543,7 +2543,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -2562,7 +2562,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>NUMBER_SLIP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -2581,7 +2581,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CO_CODE AS UNIT_CODE</t>
+          <t>MARK_DATE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -2600,7 +2600,7 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2619,7 +2619,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2631,14 +2631,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+          <t>SLIPMARKDATA</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MARK_DATE</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2650,14 +2658,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
+          <t>SLIPMARKDATA</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SUM( NUMBER_SLIP ) TOTAL_TRANS_REF</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2674,17 +2690,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2701,17 +2717,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>COMPANY_ACCOUNTING</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2738,7 +2754,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>MARK_DATE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2765,7 +2781,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>COMPANY_ACCOUNTING</t>
+          <t>SLIP_FROM</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2780,19 +2796,11 @@
           <t>SLIPMARKDATA</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TBL_SLIP_MARK</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>MARK_DATE</t>
+          <t>NUMBER_SLIP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -2804,22 +2812,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SLIPMARKDATA</t>
+          <t>SLIPMARKNONACCDATA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TBL_SLIP_MARK</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SLIP_FROM</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -2831,14 +2839,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SLIPMARKDATA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
+          <t>SLIPMARKNONACCDATA</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1 NUMBER_SLIP</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -2855,17 +2871,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK_TRANS_NON_ACC</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2882,17 +2898,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK_TRANS_NON_ACC</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2919,7 +2935,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>MARK_DATE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2934,19 +2950,15 @@
           <t>SLIPMARKNONACCDATA</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>TBL_SLIP_MARK_TRANS_NON_ACC</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2961,19 +2973,11 @@
           <t>SLIPMARKNONACCDATA</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>TBL_SLIP_MARK_TRANS_NON_ACC</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>SM</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>MARK_DATE</t>
+          <t>NUMBER_SLIP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2985,18 +2989,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SLIPMARKNONACCDATA</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>SLIPMARKNONTRANSREFDATA</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TBL_SLIP_MARK_TRANS_NON_ACC</t>
+          <t>UNIT_NAME</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -3008,14 +3016,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SLIPMARKNONACCDATA</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
+          <t>SLIPMARKNONTRANSREFDATA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1 NUMBER_SLIP</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -3032,17 +3048,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK_NON_TRANS_REF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNIT_NAME</t>
+          <t>MARK_USER</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -3059,17 +3075,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_SLIP_MARK_NON_TRANS_REF</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3096,7 +3112,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>MARK_USER</t>
+          <t>CREATED_DATE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -3123,7 +3139,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3135,54 +3151,54 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SLIPMARKNONTRANSREFDATA</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>TBL_SLIP_MARK_NON_TRANS_REF</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CREATED_DATE</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Quy tắc lấy dữ liệu</t>
+          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SLIPMARKNONTRANSREFDATA</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TBL_SLIP_MARK_NON_TRANS_REF</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Quy tắc lấy dữ liệu</t>
+          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
         </is>
       </c>
     </row>
@@ -3194,17 +3210,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3221,17 +3237,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>EVALUATION_DATE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3258,7 +3274,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3285,7 +3301,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EVALUATION_DATE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3312,7 +3328,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>REGISTER_DATE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3339,12 +3355,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
+          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
         </is>
       </c>
     </row>
@@ -3366,12 +3382,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>REGISTER_DATE</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bước 1 : Lấy dữ liệu kỳ đánh giá thỏa mãn điều kiện đánh giá :</t>
+          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3409,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>FREQUENCY</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3420,7 +3436,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>FREQUENCY_UNIT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3442,12 +3458,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PE1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>FREQUENCY</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3469,12 +3485,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>PE1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>FREQUENCY_UNIT</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3491,22 +3507,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PE1</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
         </is>
       </c>
     </row>
@@ -3518,22 +3534,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PE1</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>B2.1 Lấy dữ liệu kỳ trước :</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3561,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3572,17 +3588,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>EVALUATION_DATE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3609,7 +3625,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3636,7 +3652,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>EVALUATION_DATE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3663,7 +3679,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>REGISTER_DATE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3680,22 +3696,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_DISBURSEMENT_SALES</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TBL_BI_DISBURSEMENT_SALES</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
     </row>
@@ -3707,22 +3723,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_DISBURSEMENT_SALES</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TBL_BI_DISBURSEMENT_SALES</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>REGISTER_DATE</t>
+          <t>LOC_AMT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện đánh giá</t>
+          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
         </is>
       </c>
     </row>
@@ -3744,7 +3760,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3771,7 +3787,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LOC_AMT</t>
+          <t>TRANS_TYPE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3798,7 +3814,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>TO_DATE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3825,7 +3841,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>TRANS_TYPE</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3852,7 +3868,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TO_DATE</t>
+          <t>FROM_DATE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3879,7 +3895,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>CONTRACT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3906,7 +3922,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>FROM_DATE</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3923,17 +3939,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CONTRACT</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3950,17 +3966,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DAYID</t>
+          <t>LC_AMOUNT_LCY</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3987,7 +4003,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>TO_DATE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4014,7 +4030,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC_AMOUNT_LCY</t>
+          <t>ISSUE_DATE</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4041,7 +4057,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>TO_DATE</t>
+          <t>FROM_DATE</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4068,7 +4084,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ISSUE_DATE</t>
+          <t>CUSTOMER</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4095,7 +4111,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>FROM_DATE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4112,17 +4128,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CUSTOMER</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4139,17 +4155,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>AMOUNT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4176,7 +4192,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>TO_DATE</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -4203,7 +4219,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AMOUNT</t>
+          <t>PAST_SCHED_DATE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4230,7 +4246,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>TO_DATE</t>
+          <t>FROM_DATE</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4257,7 +4273,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PAST_SCHED_DATE</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4284,7 +4300,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>FROM_DATE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4311,7 +4327,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4328,17 +4344,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4355,17 +4371,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
+          <t>CAST</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4392,7 +4408,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>DEBT</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4419,7 +4435,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>CAST</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4446,7 +4462,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DEBT</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4473,7 +4489,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DAYID</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4490,17 +4506,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_BI_CREDIT_SALES</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_BI_CREDIT_SALES</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4517,17 +4533,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_BI_CREDIT_SALES</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>TBL_BI_CREDIT_SALES</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>CAST</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4554,7 +4570,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>AMOUNT_LCY</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4581,7 +4597,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CAST</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4608,7 +4624,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>AMOUNT_LCY</t>
+          <t>FROM_DATE</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4635,7 +4651,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DAYID</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4662,7 +4678,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>FROM_DATE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4689,7 +4705,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>OUT_REFERENCE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4706,17 +4722,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TBL_BI_CREDIT_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TBL_BI_CREDIT_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>SUM</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4733,17 +4749,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TBL_BI_CREDIT_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>TBL_BI_CREDIT_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>OUT_REFERENCE</t>
+          <t>BALANCE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4770,7 +4786,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SUM</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4797,7 +4813,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>BALANCE</t>
+          <t>CONTRACTID</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4814,17 +4830,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_CONFIG_INPUT_TOI</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_CONFIG_INPUT_TOI</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>TOI_VALUE</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4841,17 +4857,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_CONFIG_INPUT_TOI</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_CONFIG_INPUT_TOI</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>CONTRACTID</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4878,7 +4894,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>TOI_VALUE</t>
+          <t>CONTRACTID</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4905,7 +4921,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4932,7 +4948,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CONTRACTID</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4959,7 +4975,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4976,17 +4992,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TBL_CONFIG_INPUT_TOI</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>TBL_CONFIG_INPUT_TOI</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5003,17 +5019,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TBL_CONFIG_INPUT_TOI</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>TBL_CONFIG_INPUT_TOI</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>AUTO_PERIOD</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5040,7 +5056,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>BUSINESS_UNIT_NOTE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5067,7 +5083,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>AUTO_PERIOD</t>
+          <t>CONTENT</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5094,7 +5110,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>BUSINESS_UNIT_NOTE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5121,7 +5137,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CONTENT</t>
+          <t>CONTROL_METHOD</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5148,7 +5164,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATED_DATE</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5175,7 +5191,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>CONTROL_METHOD</t>
+          <t>CREATED_USER</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5202,7 +5218,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CREATED_DATE</t>
+          <t>DESCRIPTION</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5229,7 +5245,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CREATED_USER</t>
+          <t>DOCUMENT_NAME</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5256,7 +5272,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DESCRIPTION</t>
+          <t>FIRST_DATE_CHOSEN_PERIOD</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5283,7 +5299,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DOCUMENT_NAME</t>
+          <t>FREQUENCY</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5310,7 +5326,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>FIRST_DATE_CHOSEN_PERIOD</t>
+          <t>FREQUENCY_UNIT</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5337,7 +5353,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>FREQUENCY</t>
+          <t>NEW_CUSTOMER</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5364,7 +5380,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>FREQUENCY_UNIT</t>
+          <t>RULE_MATCH</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5391,7 +5407,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NEW_CUSTOMER</t>
+          <t>RULE_NUMBER</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5418,7 +5434,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>RULE_MATCH</t>
+          <t>SANCTION</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5445,7 +5461,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>RULE_NUMBER</t>
+          <t>SANCTION_TYPE</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5472,7 +5488,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>SANCTION</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5499,7 +5515,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SANCTION_TYPE</t>
+          <t>TOI</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5526,7 +5542,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>TOI_MATCH</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5553,7 +5569,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>TOI</t>
+          <t>TOI_VALUE</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5580,7 +5596,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>TOI_MATCH</t>
+          <t>TYPE_PERIOD_RATE</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5607,7 +5623,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>TOI_VALUE</t>
+          <t>UPDATED_DATE</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5634,7 +5650,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>TYPE_PERIOD_RATE</t>
+          <t>UPDATED_USER</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5661,7 +5677,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>UPDATED_DATE</t>
+          <t>START_PERIOD</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5688,7 +5704,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>UPDATED_USER</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5715,7 +5731,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>START_PERIOD</t>
+          <t>REASON</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5742,7 +5758,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>MIN_APPROVAL_VALUE</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5769,7 +5785,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>REASON</t>
+          <t>IS_MIN_APPROVAL_VALUE</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5796,7 +5812,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>MIN_APPROVAL_VALUE</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5823,7 +5839,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>IS_MIN_APPROVAL_VALUE</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5850,7 +5866,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>CLONE_ID</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5877,7 +5893,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5904,7 +5920,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CLONE_ID</t>
+          <t>CUSTOMER_CLASS</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5931,7 +5947,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5958,7 +5974,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>CUSTOMER_CLASS</t>
+          <t>COMPANY_NAME_VN</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5985,7 +6001,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>VERSION_CONFIG_ID</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -6012,7 +6028,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>COMPANY_NAME_VN</t>
+          <t>ORIGIN_ID</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6039,7 +6055,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>VERSION_CONFIG_ID</t>
+          <t>CONTRACTCONDITIONID</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6056,17 +6072,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_REVENUE_CONFIGURATION</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_REVENUE_CONFIGURATION</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>ORIGIN_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6083,17 +6099,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_REVENUE_CONFIGURATION</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_REVENUE_CONFIGURATION</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>CONTRACTCONDITIONID</t>
+          <t>ADVANCE</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6120,7 +6136,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>APPROVAL_RATE</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6147,7 +6163,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>ADVANCE</t>
+          <t>CONTRACT</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6174,7 +6190,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>APPROVAL_RATE</t>
+          <t>CREATED_DATE</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6201,7 +6217,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>CONTRACT</t>
+          <t>CREATED_USER</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6228,7 +6244,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>CREATED_DATE</t>
+          <t>CREDIT_REVENUE</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6255,7 +6271,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>CREATED_USER</t>
+          <t>DEBT_REVENUE</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6282,7 +6298,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>CREDIT_REVENUE</t>
+          <t>DISBURMENT_REVENUE</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6309,7 +6325,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>DEBT_REVENUE</t>
+          <t>FT_ENTRY</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6336,7 +6352,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>DISBURMENT_REVENUE</t>
+          <t>GUARANTEE_REVENUE</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6363,7 +6379,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>FT_ENTRY</t>
+          <t>LC_REVENUE</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6390,7 +6406,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>GUARANTEE_REVENUE</t>
+          <t>LOAN</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -6417,7 +6433,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC_REVENUE</t>
+          <t>MONEY_ON_DOCUMENT</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -6444,7 +6460,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LOAN</t>
+          <t>ORIGINAL_INTEREST_REVENUE</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6471,7 +6487,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MONEY_ON_DOCUMENT</t>
+          <t>OTHER_NUMBER</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6498,7 +6514,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>ORIGINAL_INTEREST_REVENUE</t>
+          <t>PAYMENT</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6525,7 +6541,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>OTHER_NUMBER</t>
+          <t>RECIPROCAL</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6552,7 +6568,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PAYMENT</t>
+          <t>REVENUE_CONDITION_ID</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6579,7 +6595,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>RECIPROCAL</t>
+          <t>RULE_NUMBER</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6606,7 +6622,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>REVENUE_CONDITION_ID</t>
+          <t>TF_ENTRY</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6633,7 +6649,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>RULE_NUMBER</t>
+          <t>TT_ENTRY</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6660,7 +6676,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>TF_ENTRY</t>
+          <t>UPDATED_DATE</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6687,7 +6703,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>TT_ENTRY</t>
+          <t>UPDATED_USER</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6714,7 +6730,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>UPDATED_DATE</t>
+          <t>DISBURSEMENT_MONEY</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6741,7 +6757,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>UPDATED_USER</t>
+          <t>DOCUMENT_ADDITIONAL</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6768,7 +6784,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>DISBURSEMENT_MONEY</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6795,7 +6811,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DOCUMENT_ADDITIONAL</t>
+          <t>VERSION_CONFIG_ID</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6822,7 +6838,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>CONTRACTCONDITIONID</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6839,17 +6855,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONFIGURATION</t>
+          <t>TBL_REVENUE_PERIOD_RATE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONFIGURATION</t>
+          <t>TBL_REVENUE_PERIOD_RATE</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>VERSION_CONFIG_ID</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6866,17 +6882,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONFIGURATION</t>
+          <t>TBL_REVENUE_PERIOD_RATE</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONFIGURATION</t>
+          <t>TBL_REVENUE_PERIOD_RATE</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>CONTRACTCONDITIONID</t>
+          <t>RATE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6903,7 +6919,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6930,7 +6946,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>RATE</t>
+          <t>TYPEPERIODRATE</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6942,7 +6958,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>MAX_PERIOD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -6955,11 +6971,7 @@
           <t>TBL_REVENUE_PERIOD_RATE</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>TYPE</t>
-        </is>
-      </c>
+      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
@@ -6969,22 +6981,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>TBL_REVENUE_PERIOD_RATE</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>TBL_REVENUE_PERIOD_RATE</t>
-        </is>
-      </c>
+          <t>MAX_PERIOD</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>TYPEPERIODRATE</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6996,20 +7000,24 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
           <t>MAX_PERIOD</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>TBL_REVENUE_PERIOD_RATE</t>
-        </is>
-      </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_PERIOD_RATE</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>MAX_PERIOD</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>PERIOD</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
@@ -7019,14 +7027,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
           <t>MAX_PERIOD</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="inlineStr"/>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>MAX_PERIOD</t>
+        </is>
+      </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>MAX( PERIOD ) AS PERIOD</t>
+          <t>TYPE</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7041,19 +7057,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>MAX_PERIOD</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>MAX_PERIOD</t>
-        </is>
-      </c>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>TYPEPERIODRATE</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7070,17 +7078,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAX_PERIOD</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>MAX_PERIOD</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>TYPE</t>
+          <t>CONTRACT_AMT</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7095,11 +7103,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+        </is>
+      </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>TYPEPERIODRATE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7116,22 +7132,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CONTRACT_AMT</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
     </row>
@@ -7143,22 +7159,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Tính doanh số giải ngân, doanh số thu gốc và lãi, doanh số phát hành LC, doanh số phát hành bảo lãnh</t>
+          <t>Đánh giá tổng hợp các điều kiện trên</t>
         </is>
       </c>
     </row>
@@ -7170,12 +7186,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7197,17 +7213,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>AUTOEVALUATIONRESULT</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7224,22 +7240,22 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Đánh giá tổng hợp các điều kiện trên</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -7251,22 +7267,22 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>AUTOEVALUATIONRESULT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Đánh giá tổng hợp các điều kiện trên</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -7278,12 +7294,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7305,12 +7321,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7332,17 +7348,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7359,17 +7375,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>EVALUATION_DATE</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7396,7 +7412,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7423,7 +7439,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>EVALUATION_DATE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7450,7 +7466,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -7477,7 +7493,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7504,7 +7520,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>REGISTER_DATE</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7526,17 +7542,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>AUTO_EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -7553,17 +7569,17 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>REGISTER_DATE</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -7573,16 +7589,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
-      <c r="C195" t="inlineStr"/>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>( 'CROSS_SELLING', 'CREDIT_RELATION', 'REVENUE' )</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7628,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>AUTO_EVALUATION_RESULT</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -7619,24 +7643,20 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>OR</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -7648,17 +7668,17 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CROSS_SELLING</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CROSS_SELLING</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>CONDITION_ID</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7685,7 +7705,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -7700,15 +7720,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr"/>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>OR</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7725,22 +7749,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>TBL_CROSS_SELLING</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>TBL_CROSS_SELLING</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CONDITION_ID</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -7762,12 +7786,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_STATUS</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -7789,7 +7813,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>PERIOD</t>
+          <t>CONTRACT_CONDITION_STATUS</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -7816,7 +7840,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>LOCKED_KEY</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -7843,7 +7867,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>CONTRACT_STATUS</t>
+          <t>CREATE_NEXT_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -7870,7 +7894,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_STATUS</t>
+          <t>FORCE_CREATE_NEXT</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -7887,22 +7911,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>LOCKED_KEY</t>
+          <t>CUSTOMER_TYPE</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
         </is>
       </c>
     </row>
@@ -7914,22 +7938,22 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>CREATE_NEXT_PERIOD_STATUS</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
     </row>
@@ -7941,22 +7965,22 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>FORCE_CREATE_NEXT</t>
+          <t>LOAN_PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
     </row>
@@ -7968,22 +7992,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>CUSTOMER_TYPE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Trương hợp GROUP_CONTRACT_CONDITION = PERIODIC</t>
+          <t>Mô tả nghiệp vụ</t>
         </is>
       </c>
     </row>
@@ -7995,22 +8019,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
+          <t>Mô tả nghiệp vụ</t>
         </is>
       </c>
     </row>
@@ -8022,22 +8046,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_CODE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Trường hợp GROUP_CONTRACT_CONDITION = LOAN_PRODUCT_CONDITION</t>
+          <t>Mô tả nghiệp vụ</t>
         </is>
       </c>
     </row>
@@ -8059,7 +8083,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8086,7 +8110,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>STATE</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8103,22 +8127,22 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>STATE</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Mô tả nghiệp vụ</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8130,22 +8154,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Mô tả nghiệp vụ</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8157,22 +8181,22 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Mô tả nghiệp vụ</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8218,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>PERIOD_CONDITION</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8211,22 +8235,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>PERIOD_STATUS</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8238,22 +8262,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8265,22 +8289,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>PERIOD_CONDITION</t>
+          <t>COLLATERAL_TYPE</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8292,17 +8316,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>COLL_TYPE</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8319,12 +8343,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8346,17 +8370,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>COLLATERAL_TYPE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -8373,22 +8397,22 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>TBL_VAL_COLLATERAL_FREQUENCY</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>COLL_TYPE</t>
+          <t>PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Sinh kỳ TSBD</t>
         </is>
       </c>
     </row>
@@ -8400,22 +8424,22 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>STATE</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Sinh kỳ TSBD</t>
         </is>
       </c>
     </row>
@@ -8427,22 +8451,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>UPDATED_USER</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Sinh kỳ TSBD</t>
         </is>
       </c>
     </row>
@@ -8464,7 +8488,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>PERIOD_STATUS</t>
+          <t>UPDATE_DATE</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -8491,7 +8515,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>STATE</t>
+          <t>SYSDATE</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -8508,22 +8532,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>UPDATED_USER</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sinh kỳ TSBD</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8535,22 +8559,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>UPDATE_DATE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sinh kỳ TSBD</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8562,22 +8586,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>SYSDATE</t>
+          <t>CPS_DKSPV</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sinh kỳ TSBD</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8599,7 +8623,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -8616,22 +8640,22 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>PRODUCT_TYPE</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8643,22 +8667,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>CPS_DKSPV</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8670,22 +8694,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -8697,17 +8721,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>PRODUCT_TYPE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -8724,17 +8748,17 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -8751,17 +8775,17 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>LOAN_PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -8788,7 +8812,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -8805,17 +8829,17 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>CPS_DKSPV</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -8832,17 +8856,17 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_CODE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -8859,17 +8883,17 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>UPDATED_DATE</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -8896,7 +8920,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>CPS_DKSPV</t>
+          <t>SYSDATE</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -8923,7 +8947,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>UPDATED_USER</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -8938,24 +8962,20 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>UPDATED_DATE</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -8965,24 +8985,20 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="B247" t="inlineStr"/>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
         <is>
           <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>SYSDATE</t>
-        </is>
-      </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -9002,14 +9018,10 @@
           <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>UPDATED_USER</t>
-        </is>
-      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -9019,17 +9031,17 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr"/>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
           <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
+      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
           <t>Lấy dữ liệu thỏa mãn điều kiện</t>
@@ -9043,14 +9055,10 @@
         </is>
       </c>
       <c r="B250" t="inlineStr"/>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -9065,17 +9073,13 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr"/>
+      <c r="B251" t="inlineStr"/>
+      <c r="C251" t="inlineStr"/>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>DATA_STATUS</t>
+        </is>
+      </c>
       <c r="E251" t="inlineStr">
         <is>
           <t>Lấy dữ liệu thỏa mãn điều kiện</t>
@@ -9090,15 +9094,19 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr"/>
+          <t>CRD</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>VALUE_DATE_MIN</t>
+        </is>
+      </c>
       <c r="E252" t="inlineStr">
         <is>
           <t>Lấy dữ liệu thỏa mãn điều kiện</t>
@@ -9111,11 +9119,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr"/>
-      <c r="C253" t="inlineStr"/>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CRD</t>
+        </is>
+      </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>('NEW', 'RENEW')</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -9130,11 +9146,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr"/>
-      <c r="C254" t="inlineStr"/>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_REF_DEFINE_BIPLUS</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CRD</t>
+        </is>
+      </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>DATA_STATUS = 'ACTIVE'</t>
+          <t>VALUE_DATE_MIN</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -9149,11 +9173,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr"/>
-      <c r="C255" t="inlineStr"/>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_REF_DEFINE_BIPLUS</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>CRD</t>
+        </is>
+      </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -9170,17 +9202,17 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>CRD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>VALUE_DATE_MIN</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -9197,17 +9229,17 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>CRD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -9224,17 +9256,17 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE_BIPLUS</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>CRD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>VALUE_DATE_MIN</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -9251,17 +9283,17 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE_BIPLUS</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>CRD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -9288,7 +9320,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -9315,7 +9347,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -9342,7 +9374,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>CONTRACT_MD</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -9369,7 +9401,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>PAST_SCHED_DATE</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -9396,7 +9428,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -9423,7 +9455,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>ISSUE_DATE</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -9440,7 +9472,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -9450,7 +9482,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>CONTRACT_MD</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
@@ -9467,7 +9499,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -9477,7 +9509,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>PAST_SCHED_DATE</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -9494,7 +9526,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -9504,7 +9536,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
@@ -9521,7 +9553,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -9531,7 +9563,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>ISSUE_DATE</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
@@ -9558,7 +9590,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -9585,7 +9617,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
@@ -9612,7 +9644,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>CONTRACT_MD</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -9639,7 +9671,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>PAST_SCHED_DATE</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -9666,7 +9698,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
@@ -9693,7 +9725,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>ISSUE_DATE</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
@@ -9710,7 +9742,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -9720,7 +9752,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>CONTRACT_MD</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
@@ -9737,7 +9769,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -9747,7 +9779,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>PAST_SCHED_DATE</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
@@ -9764,7 +9796,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -9774,7 +9806,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
@@ -9791,7 +9823,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -9801,7 +9833,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>ISSUE_DATE</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
@@ -9828,7 +9860,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
@@ -9855,7 +9887,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -9882,7 +9914,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>CONTRACT_MD</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -9909,7 +9941,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>PAST_SCHED_DATE</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -9936,7 +9968,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -9963,7 +9995,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>ISSUE_DATE</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -9978,19 +10010,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
       <c r="D286" t="inlineStr">
         <is>
-          <t>CONTRACT_MD</t>
+          <t>RENEW</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -10007,22 +10031,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>PAST_SCHED_DATE</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10034,22 +10058,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>DKNQ</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10061,22 +10085,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>ISSUE_DATE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10086,16 +10110,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr"/>
-      <c r="C290" t="inlineStr"/>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>TBL_CONTRACT_CONDITION</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>TBL_CONTRACT_CONDITION</t>
+        </is>
+      </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>(‘NEW’,’RENEW’)</t>
+          <t>DKSP</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10149,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -10144,7 +10176,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>DKNQ</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
@@ -10171,7 +10203,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>KHOẢN</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
@@ -10198,7 +10230,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>DKSP</t>
+          <t>NGÂN</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -10225,7 +10257,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>TỪ</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -10252,7 +10284,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>BẢNG</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -10269,17 +10301,17 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_FRCK_PURPOSE_USE_CAPITAL</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_FRCK_PURPOSE_USE_CAPITAL</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>KHOẢN</t>
+          <t>PRODUCT_TYPE</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -10296,22 +10328,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>NGÂN</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10323,22 +10355,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>TỪ</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10350,22 +10382,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>BẢNG</t>
+          <t>CPS_TSKTDK</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10377,22 +10409,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>TBL_FRCK_PURPOSE_USE_CAPITAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>TBL_FRCK_PURPOSE_USE_CAPITAL</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>PRODUCT_TYPE</t>
+          <t>LOCKED_KEY</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -10419,7 +10451,7 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10478,7 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10458,22 +10490,18 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>CPS_TSKTDK</t>
-        </is>
-      </c>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10483,24 +10511,16 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
       <c r="D305" t="inlineStr">
         <is>
-          <t>LOCKED_KEY</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -10510,19 +10530,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>CAREATE_DATE</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -10537,19 +10549,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="inlineStr"/>
       <c r="D307" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -10564,17 +10568,13 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr"/>
+      <c r="B308" t="inlineStr"/>
+      <c r="C308" t="inlineStr"/>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>CO_CODE</t>
+        </is>
+      </c>
       <c r="E308" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -10591,7 +10591,7 @@
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -10610,7 +10610,7 @@
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -10622,16 +10622,20 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr"/>
-      <c r="C311" t="inlineStr"/>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>CAREATE_DATE = ()</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -10641,14 +10645,14 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -10660,14 +10664,14 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>CAREATE_DATE</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -10679,14 +10683,14 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -10701,17 +10705,13 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr"/>
+      <c r="B315" t="inlineStr"/>
+      <c r="C315" t="inlineStr"/>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>CO_CODE</t>
+        </is>
+      </c>
       <c r="E315" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -10728,7 +10728,7 @@
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>CUSTOMER_ID</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -10747,7 +10747,7 @@
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
@@ -10759,14 +10759,14 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION = 'PERIODIC'</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -10778,14 +10778,14 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="inlineStr">
         <is>
-          <t>CUSTOMER_ID</t>
+          <t>PERRIOD</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -10804,7 +10804,7 @@
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>PERRIOD</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
@@ -10823,7 +10823,7 @@
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
@@ -10835,14 +10835,22 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr"/>
-      <c r="C322" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+        </is>
+      </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>(CAREATE_DATE)</t>
+          <t>CUSTOMER_TYPE</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -10857,11 +10865,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B323" t="inlineStr"/>
-      <c r="C323" t="inlineStr"/>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+        </is>
+      </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>STATUS = 'APPROVED'</t>
+          <t>CUSTTYPE</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -10876,11 +10892,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B324" t="inlineStr"/>
-      <c r="C324" t="inlineStr"/>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>PERRIOD = ()</t>
+          <t>LOANS_TERM_EXT</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
@@ -10892,14 +10916,22 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr"/>
-      <c r="C325" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>STATUS = 'APPROVED'</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -10911,14 +10943,22 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr"/>
-      <c r="C326" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>(PERRIOD)</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
@@ -10935,17 +10975,17 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>CUSTOMER_TYPE</t>
+          <t>WHRER</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
@@ -10962,17 +11002,17 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>TBL_PERIODIC_TEST_FREQUENCY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>CUSTTYPE</t>
+          <t>CUSTOMERID</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
@@ -10989,17 +11029,17 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>LOANS_TERM_EXT</t>
+          <t>COCODE</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -11016,17 +11056,17 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>DATA_STATUS</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -11043,17 +11083,17 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
@@ -11080,7 +11120,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>WHRER</t>
+          <t>CPS_TSKTDK</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -11107,7 +11147,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>CUSTOMERID</t>
+          <t>LOCKED_KEY</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
@@ -11124,17 +11164,17 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>COCODE</t>
+          <t>CONTRACT_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
@@ -11151,22 +11191,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>DATA_STATUS</t>
+          <t>SANCTION</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11178,22 +11218,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SANCTIONTYPE</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11205,22 +11245,22 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>CPS_TSKTDK</t>
+          <t>ORIGIN_ID</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11232,22 +11272,22 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>LOCKED_KEY</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11259,22 +11299,22 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>LP</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_TYPE</t>
+          <t>SANCTION</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -11286,17 +11326,17 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>LP</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>SANCTION</t>
+          <t>CODE</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
@@ -11313,17 +11353,17 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>SANCTIONTYPE</t>
+          <t>LOAN_PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -11340,17 +11380,17 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>ORIGIN_ID</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
@@ -11367,17 +11407,17 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONTRACT_CONDITION_STATUS</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
@@ -11394,12 +11434,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -11421,17 +11461,17 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>CODE</t>
+          <t>SANCTIONTYPE</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -11448,17 +11488,17 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_CODE</t>
+          <t>ORIGIN_ID</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -11475,17 +11515,17 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>RC</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -11500,19 +11540,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>PE</t>
-        </is>
-      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="inlineStr"/>
       <c r="D348" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_STATUS</t>
+          <t>SYSDATE</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -11529,22 +11561,22 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>SANCTION</t>
+          <t>CONDITION_ID</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -11556,22 +11588,22 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>SANCTIONTYPE</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -11583,22 +11615,22 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>ORIGIN_ID</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -11610,22 +11642,22 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>RC</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CONDITION_ID</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -11635,16 +11667,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B353" t="inlineStr"/>
-      <c r="C353" t="inlineStr"/>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>APPLYSANCTIONREPORTS</t>
+        </is>
+      </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>'REVENUE', 'LOAN_PRODUCT_CONDITION'</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -11656,17 +11696,17 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>CONDITION_ID</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -11683,17 +11723,17 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -11710,17 +11750,17 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -11735,19 +11775,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>CONDITION_ID</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -11762,19 +11798,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -11789,19 +11821,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>APPLYSANCTIONREPORTS</t>
-        </is>
-      </c>
+      <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>PERIOD</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>LOAN_CODE</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -11816,19 +11844,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
+      <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -11845,19 +11869,15 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr">
-        <is>
-          <t>CONTRACT_ID</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -11871,14 +11891,10 @@
         </is>
       </c>
       <c r="B362" t="inlineStr"/>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C362" t="inlineStr"/>
       <c r="D362" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -11894,14 +11910,10 @@
         </is>
       </c>
       <c r="B363" t="inlineStr"/>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C363" t="inlineStr"/>
       <c r="D363" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>DEBT</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -11917,14 +11929,10 @@
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C364" t="inlineStr"/>
       <c r="D364" t="inlineStr">
         <is>
-          <t>LOAN_CODE</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -11940,14 +11948,10 @@
         </is>
       </c>
       <c r="B365" t="inlineStr"/>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C365" t="inlineStr"/>
       <c r="D365" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>CONTRACT</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -11959,20 +11963,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr"/>
+          <t>PERIOD</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>CONTRACT_ID</t>
+        </is>
+      </c>
       <c r="E366" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -11982,14 +11986,18 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B367" t="inlineStr"/>
-      <c r="C367" t="inlineStr"/>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>UPPER(CONTRACT)</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -12001,16 +12009,20 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr"/>
-      <c r="C368" t="inlineStr"/>
-      <c r="D368" t="inlineStr">
-        <is>
-          <t>DAYID = ()</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -12020,14 +12032,14 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -12043,14 +12055,10 @@
         </is>
       </c>
       <c r="B370" t="inlineStr"/>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>PERIOD</t>
-        </is>
-      </c>
+      <c r="C370" t="inlineStr"/>
       <c r="D370" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>DEBT</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
@@ -12066,14 +12074,10 @@
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C371" t="inlineStr"/>
       <c r="D371" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -12085,20 +12089,24 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>sub-select</t>
+          <t>Main_SQL</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D372" t="inlineStr"/>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>UNIT_CODE</t>
+        </is>
+      </c>
       <c r="E372" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
@@ -12108,14 +12116,22 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr"/>
-      <c r="C373" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
@@ -12127,14 +12143,22 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr"/>
-      <c r="C374" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
+        </is>
+      </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>RATING_STATUS</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
@@ -12151,17 +12175,17 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -12178,17 +12202,17 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>REPORTNOTE</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
@@ -12205,22 +12229,22 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>RATING_STATUS</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12232,22 +12256,22 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12269,12 +12293,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>REPORTNOTE</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -12286,22 +12310,22 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_COLLATERAL</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu tài sản bảo đảm</t>
         </is>
       </c>
     </row>
@@ -12323,12 +12347,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -12355,7 +12379,7 @@
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -12367,22 +12391,22 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>TBL_BI_COLLATERAL</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu tài sản bảo đảm</t>
+          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
         </is>
       </c>
     </row>
@@ -12394,17 +12418,17 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
@@ -12421,17 +12445,17 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>CONTRACTREFS</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
@@ -12458,12 +12482,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -12475,22 +12499,22 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -12502,22 +12526,22 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>CONTRACTREFS</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu những hợp đồng giải ngân tương ứng</t>
+          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
         </is>
       </c>
     </row>
@@ -12529,17 +12553,17 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>COLLATERAL_TYPES</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
@@ -12556,17 +12580,17 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>LOAN_TYPE</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
@@ -12583,17 +12607,17 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_INSURANCE_SANCTION</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
@@ -12620,7 +12644,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>COLLATERAL_TYPES</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
@@ -12637,22 +12661,22 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>LOAN_TYPE</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -12664,22 +12688,22 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -12691,22 +12715,22 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>TBL_INSURANCE_SANCTION</t>
+          <t>TBL_APPLY_SANCTION_REPORT</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu cấu hình chế tài TSBD tương ứng</t>
+          <t>Tạo dữ liệu áp chế tài</t>
         </is>
       </c>
     </row>
@@ -12728,7 +12752,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
@@ -12755,7 +12779,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -12772,17 +12796,17 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>COLLATERAL_ID</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -12799,17 +12823,17 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -12826,17 +12850,17 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>TBL_APPLY_SANCTION_REPORT</t>
+          <t>APPLYSANCTIONREPORTS</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -12863,7 +12887,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>COLLATERAL_ID</t>
+          <t>STATUS_REPORT</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -12890,7 +12914,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>CREATE_USER</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -12907,17 +12931,17 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -12934,17 +12958,17 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>STATUS_REPORT</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -12961,17 +12985,17 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>APPLYSANCTIONREPORTS</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>CREATE_USER</t>
+          <t>START_DATE</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -12988,17 +13012,17 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>MONTHVALUE</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -13015,17 +13039,17 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_REF_DEFINE</t>
+          <t>INSURANCESANCTIONS</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>REFID</t>
+          <t>END_DATE</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -13052,7 +13076,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>START_DATE</t>
+          <t>INTEREST_ADJUST</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -13079,7 +13103,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>MONTHVALUE</t>
+          <t>INTERESTADJUSTENUM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -13106,7 +13130,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>END_DATE</t>
+          <t>REPORT_DATE</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -13133,7 +13157,7 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>INTEREST_ADJUST</t>
+          <t>REPORTDATETYPE</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -13148,19 +13172,15 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>INTERESTADJUSTENUM</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -13177,19 +13197,15 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="D413" t="inlineStr">
-        <is>
-          <t>REPORT_DATE</t>
-        </is>
-      </c>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -13202,19 +13218,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>INSURANCESANCTIONS</t>
-        </is>
-      </c>
+      <c r="B414" t="inlineStr"/>
+      <c r="C414" t="inlineStr"/>
       <c r="D414" t="inlineStr">
         <is>
-          <t>REPORTDATETYPE</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -13230,14 +13238,10 @@
         </is>
       </c>
       <c r="B415" t="inlineStr"/>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C415" t="inlineStr"/>
       <c r="D415" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>DEBT</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -13252,17 +13256,13 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D416" t="inlineStr"/>
+      <c r="B416" t="inlineStr"/>
+      <c r="C416" t="inlineStr"/>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>DAYID</t>
+        </is>
+      </c>
       <c r="E416" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -13279,7 +13279,7 @@
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="inlineStr">
         <is>
-          <t>CONTRACT_REF = REFID</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -13291,14 +13291,18 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B418" t="inlineStr"/>
-      <c r="C418" t="inlineStr"/>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>DAYID = ()</t>
+          <t>TBL_BI_CONTRACT_DEBT</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -13310,16 +13314,20 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr"/>
-      <c r="C419" t="inlineStr"/>
-      <c r="D419" t="inlineStr">
-        <is>
-          <t>DEBT &gt; 0</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>TBL_BI_CONTRACT_DEBT</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -13333,14 +13341,10 @@
         </is>
       </c>
       <c r="B420" t="inlineStr"/>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C420" t="inlineStr"/>
       <c r="D420" t="inlineStr">
         <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -13355,17 +13359,13 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>TBL_BI_CONTRACT_DEBT</t>
-        </is>
-      </c>
-      <c r="D421" t="inlineStr"/>
+      <c r="B421" t="inlineStr"/>
+      <c r="C421" t="inlineStr"/>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>DEBT</t>
+        </is>
+      </c>
       <c r="E421" t="inlineStr">
         <is>
           <t>Tạo dữ liệu áp chế tài</t>
@@ -13382,7 +13382,7 @@
       <c r="C422" t="inlineStr"/>
       <c r="D422" t="inlineStr">
         <is>
-          <t>CONTRACT_REF = REFID</t>
+          <t>DAYID</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
@@ -13401,7 +13401,7 @@
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="inlineStr">
         <is>
-          <t>MAX</t>
+          <t>REFID</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
@@ -13413,14 +13413,22 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr"/>
-      <c r="C424" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>DEBT &gt; 0</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
@@ -13432,14 +13440,22 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>sub-select</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr"/>
-      <c r="C425" t="inlineStr"/>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>AD_UNIT</t>
+        </is>
+      </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>(DAYID)</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
@@ -13456,17 +13472,17 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>REPORT_NOTE</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -13483,17 +13499,17 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>REPORTNOTE</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
@@ -13520,7 +13536,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>REPORT_NOTE</t>
+          <t>CHECK_PERIOD_REPORT</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
@@ -13547,7 +13563,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>REPORTNOTE</t>
+          <t>CHECKPERIODREPORT</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
@@ -13574,7 +13590,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>CHECK_PERIOD_REPORT</t>
+          <t>REPORT_BATCH_ID</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -13601,7 +13617,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>CHECKPERIODREPORT</t>
+          <t>REPORTBATCHID</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -13628,7 +13644,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>REPORT_BATCH_ID</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -13645,22 +13661,22 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>REPORTBATCHID</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13672,22 +13688,22 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>AD_UNIT</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>UNIT_CODE</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Tạo dữ liệu áp chế tài</t>
+          <t>Quy tắc xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -13699,22 +13715,22 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COUNT</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -13726,22 +13742,22 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>AD_UNIT</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>UNIT_CODE</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Quy tắc xử lý dữ liệu</t>
+          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
         </is>
       </c>
     </row>
@@ -13763,7 +13779,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>COUNT</t>
+          <t>STATUS</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
@@ -13790,7 +13806,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>EVALUATION_RESULT</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -13807,22 +13823,22 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -13834,22 +13850,22 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_KPI_REPORT</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>EVALUATION_RESULT</t>
+          <t>MONTH_YEAR</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Xử lý và cập nhật dữ liệu báo cáo KPI theo từng đơn vị</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -13871,12 +13887,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>MONTH_POINT</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -13898,12 +13914,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>MONTH_YEAR</t>
+          <t>CO_CODE</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp không có dữ liệu KPI trong năm</t>
+          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
         </is>
       </c>
     </row>
@@ -13915,17 +13931,17 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>DUAL</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>DUAL</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>MONTH_POINT</t>
+          <t>EXTRACT</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
@@ -13942,22 +13958,22 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>TBL_KPI_REPORT</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>CO_CODE</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -13969,22 +13985,22 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>DUAL</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>EXTRACT</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Tính và lưu dữ liệu KPI với trường hợp có dữ liệu KPI trong năm</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -14006,7 +14022,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
@@ -14023,7 +14039,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -14033,7 +14049,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
@@ -14050,7 +14066,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -14060,7 +14076,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -14087,7 +14103,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
@@ -14104,17 +14120,17 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -14131,17 +14147,17 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION_BIPLUS</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>CREATE_OTHER_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -14158,7 +14174,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -14183,19 +14199,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
-      <c r="C453" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
       <c r="D453" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>ĐKSP</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -14212,22 +14220,22 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>CREATE_OTHER_PERIOD_STATUS</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -14237,16 +14245,24 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B455" t="inlineStr"/>
-      <c r="C455" t="inlineStr"/>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>TBL_PERIOD_EVALUATION</t>
+        </is>
+      </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>ĐKSP</t>
+          <t>CONTRACT_CONDITION_ID</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -14256,19 +14272,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION</t>
-        </is>
-      </c>
-      <c r="C456" t="inlineStr">
-        <is>
-          <t>TBL_CONTRACT_CONDITION</t>
-        </is>
-      </c>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
       <c r="D456" t="inlineStr">
         <is>
-          <t>REF_ID</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -14280,22 +14288,22 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
+          <t>sub-select</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>TBL_PERIOD_EVALUATION</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>CONTRACT_CONDITION_ID</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -14307,14 +14315,22 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr"/>
-      <c r="C458" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>MIN_VALUE_DATE</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -14326,14 +14342,22 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr"/>
-      <c r="C459" t="inlineStr"/>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>TBL_BI_GUARANTEE_SALES</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>MIN(VALUE_DATE)</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -14350,17 +14374,17 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -14377,17 +14401,17 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -14404,17 +14428,17 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -14429,19 +14453,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
-        </is>
-      </c>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -14456,19 +14476,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B464" t="inlineStr">
+      <c r="B464" t="inlineStr"/>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>STG_SEAOPS</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
         <is>
           <t>TBL_BI_LC_RELEASE_SALES</t>
-        </is>
-      </c>
-      <c r="C464" t="inlineStr">
-        <is>
-          <t>LC</t>
-        </is>
-      </c>
-      <c r="D464" t="inlineStr">
-        <is>
-          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -14483,19 +14499,15 @@
           <t>sub-select</t>
         </is>
       </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
-        </is>
-      </c>
+      <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>STG_SEAOPS</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -14511,14 +14523,10 @@
         </is>
       </c>
       <c r="B466" t="inlineStr"/>
-      <c r="C466" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C466" t="inlineStr"/>
       <c r="D466" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>VALUE_DATE</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -14534,14 +14542,10 @@
         </is>
       </c>
       <c r="B467" t="inlineStr"/>
-      <c r="C467" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C467" t="inlineStr"/>
       <c r="D467" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -14557,14 +14561,10 @@
         </is>
       </c>
       <c r="B468" t="inlineStr"/>
-      <c r="C468" t="inlineStr">
-        <is>
-          <t>STG_SEAOPS</t>
-        </is>
-      </c>
+      <c r="C468" t="inlineStr"/>
       <c r="D468" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>PAST_SCHED_DATE</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -14583,7 +14583,7 @@
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="inlineStr">
         <is>
-          <t>VALUE_DATE</t>
+          <t>ISSUE_DATE</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -14595,22 +14595,14 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Main_SQL</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
-      <c r="C470" t="inlineStr">
-        <is>
-          <t>TBL_PERIOD_EVALUATION</t>
-        </is>
-      </c>
+          <t>sub-select</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
       <c r="D470" t="inlineStr">
         <is>
-          <t>LOAN_PRODUCT_ID</t>
+          <t>REF_ID</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -14637,7 +14629,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>PRODUCT_CODE</t>
+          <t>LOAN_PRODUCT_ID</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -14654,22 +14646,22 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>TBL_PERIOD_EVALUATION</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
+          <t>PRODUCT_CODE</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
+          <t>Xử lý dữ liệu</t>
         </is>
       </c>
     </row>
@@ -14681,7 +14673,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -14708,7 +14700,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -14735,7 +14727,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -14745,7 +14737,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_CROSS_SELLING_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -14772,7 +14764,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
@@ -14789,7 +14781,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -14799,7 +14791,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
@@ -14826,7 +14818,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -14843,7 +14835,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -14853,7 +14845,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>CREATE_</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -14880,7 +14872,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
+          <t>CREATE_</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
@@ -14895,11 +14887,19 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>DH</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>CREDIT_RELATION_PERIOD_STATUS = NULL</t>
+          <t>CREATE_CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
@@ -14914,19 +14914,11 @@
           <t>Main_SQL</t>
         </is>
       </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>DH</t>
-        </is>
-      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr">
         <is>
-          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
+          <t>CREDIT_RELATION_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
@@ -14943,7 +14935,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -14970,7 +14962,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -14997,7 +14989,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -15007,7 +14999,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>CREATE_LAW_PERIOD_STATUS</t>
+          <t>CREATE_FINANCIAL_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
@@ -15024,7 +15016,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -15051,7 +15043,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -15078,7 +15070,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -15088,7 +15080,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
+          <t>CREATE_LAW_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
@@ -15105,7 +15097,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -15132,7 +15124,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -15159,17 +15151,17 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>TBL_REVENUE_CONDITION</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>CONTRACT_ID</t>
+          <t>CREATE_LIFE_INSURANCE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
@@ -15196,7 +15188,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>GROUP_CONTRACT_CONDITION</t>
+          <t>CONTRACT_ID</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -15223,7 +15215,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>GROUP_CONDITION_TYPE</t>
+          <t>GROUP_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -15240,17 +15232,17 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
+          <t>TBL_REVENUE_CONDITION</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>DH</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>CREATE_REVENUE_PERIOD_STATUS</t>
+          <t>GROUP_CONDITION_TYPE</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -15267,7 +15259,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_BI_DISBURSEMENT_HISTORY</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -15294,7 +15286,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>TBL_BI_LC_RELEASE_SALES</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -15321,17 +15313,17 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>TBL_BI_LC_RELEASE_SALES</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
+          <t>DH</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>CREATE_PERIOD_STATUS</t>
+          <t>CREATE_REVENUE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
@@ -15358,7 +15350,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>RENEW</t>
+          <t>CREATE_PERIOD_STATUS</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
@@ -15375,22 +15367,22 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>TBL_BI_GUARANTEE_SALES</t>
+          <t>TBL_ADVANCE_PAYMENT_RELEASE</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>CONTRACT_MD</t>
+          <t>RENEW</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Xử lý dữ liệu</t>
+          <t>Lấy dữ liệu thỏa mãn điều kiện</t>
         </is>
       </c>
     </row>
@@ -15402,17 +15394,17 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>TBL_CONTRACT_CONDITION</t>
+          <t>TBL_BI_GUARANTEE_SALES</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>CONTRACT_REF</t>
+          <t>CONTRACT_MD</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
@@ -15429,17 +15421,17 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+          <t>TBL_CONTRACT_CONDITION</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>CATEGORY</t>
+          <t>CONTRACT_REF</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
@@ -15466,7 +15458,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>ADVANCE_RELEASE_CONDITION</t>
+          <t>CATEGORY</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -15493,10 +15485,37 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
+          <t>ADVANCE_RELEASE_CONDITION</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Xử lý dữ liệu</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Main_SQL</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>TBL_LOAN_PRODUCT_CONDITION</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
           <t>PRODUCT_CODE</t>
         </is>
       </c>
-      <c r="E503" t="inlineStr">
+      <c r="E504" t="inlineStr">
         <is>
           <t>Xử lý dữ liệu</t>
         </is>
